--- a/.tmp/public/downloads/ua-regions.xlsx
+++ b/.tmp/public/downloads/ua-regions.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B28"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -381,9 +381,6 @@
       <c r="B1" t="str">
         <v>name</v>
       </c>
-      <c r="C1" t="str">
-        <v>id</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -392,9 +389,6 @@
       <c r="B2" t="str">
         <v>АР Крим</v>
       </c>
-      <c r="C2" t="str">
-        <v>5c796d117dbb98c0032b5bfe</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -403,9 +397,6 @@
       <c r="B3" t="str">
         <v>Вінницька</v>
       </c>
-      <c r="C3" t="str">
-        <v>5c796d117dbb98c0032b5bff</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -414,9 +405,6 @@
       <c r="B4" t="str">
         <v>Волинська</v>
       </c>
-      <c r="C4" t="str">
-        <v>5c796d117dbb98c0032b5c00</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -425,9 +413,6 @@
       <c r="B5" t="str">
         <v>Дніпропетровська</v>
       </c>
-      <c r="C5" t="str">
-        <v>5c796d117dbb98c0032b5c01</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -436,9 +421,6 @@
       <c r="B6" t="str">
         <v>Донецька</v>
       </c>
-      <c r="C6" t="str">
-        <v>5c796d117dbb98c0032b5c02</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -447,9 +429,6 @@
       <c r="B7" t="str">
         <v>Житомирська</v>
       </c>
-      <c r="C7" t="str">
-        <v>5c796d117dbb98c0032b5c03</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -458,9 +437,6 @@
       <c r="B8" t="str">
         <v>Закарпатська</v>
       </c>
-      <c r="C8" t="str">
-        <v>5c796d117dbb98c0032b5c04</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -469,9 +445,6 @@
       <c r="B9" t="str">
         <v>Запорізька</v>
       </c>
-      <c r="C9" t="str">
-        <v>5c796d117dbb98c0032b5c05</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -480,9 +453,6 @@
       <c r="B10" t="str">
         <v>Івано-Франківська</v>
       </c>
-      <c r="C10" t="str">
-        <v>5c796d117dbb98c0032b5c06</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -491,9 +461,6 @@
       <c r="B11" t="str">
         <v>Київська</v>
       </c>
-      <c r="C11" t="str">
-        <v>5c796d117dbb98c0032b5c07</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -502,9 +469,6 @@
       <c r="B12" t="str">
         <v>Кіровоградська</v>
       </c>
-      <c r="C12" t="str">
-        <v>5c796d117dbb98c0032b5c08</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -513,9 +477,6 @@
       <c r="B13" t="str">
         <v>Луганська</v>
       </c>
-      <c r="C13" t="str">
-        <v>5c796d117dbb98c0032b5c09</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -524,9 +485,6 @@
       <c r="B14" t="str">
         <v>Львівська</v>
       </c>
-      <c r="C14" t="str">
-        <v>5c796d117dbb98c0032b5c0a</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -535,9 +493,6 @@
       <c r="B15" t="str">
         <v>Миколаївська</v>
       </c>
-      <c r="C15" t="str">
-        <v>5c796d117dbb98c0032b5c0b</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -546,9 +501,6 @@
       <c r="B16" t="str">
         <v>Одеська</v>
       </c>
-      <c r="C16" t="str">
-        <v>5c796d117dbb98c0032b5c0c</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -557,9 +509,6 @@
       <c r="B17" t="str">
         <v>Полтавська</v>
       </c>
-      <c r="C17" t="str">
-        <v>5c796d117dbb98c0032b5c0d</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -568,9 +517,6 @@
       <c r="B18" t="str">
         <v>Рівненська</v>
       </c>
-      <c r="C18" t="str">
-        <v>5c796d117dbb98c0032b5c0e</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -579,9 +525,6 @@
       <c r="B19" t="str">
         <v>Сумська</v>
       </c>
-      <c r="C19" t="str">
-        <v>5c796d117dbb98c0032b5c0f</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -590,9 +533,6 @@
       <c r="B20" t="str">
         <v>Тернопільська</v>
       </c>
-      <c r="C20" t="str">
-        <v>5c796d117dbb98c0032b5c10</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -601,9 +541,6 @@
       <c r="B21" t="str">
         <v>Харківська</v>
       </c>
-      <c r="C21" t="str">
-        <v>5c796d117dbb98c0032b5c11</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -612,9 +549,6 @@
       <c r="B22" t="str">
         <v>Херсонська</v>
       </c>
-      <c r="C22" t="str">
-        <v>5c796d117dbb98c0032b5c12</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -623,9 +557,6 @@
       <c r="B23" t="str">
         <v>Хмельницька</v>
       </c>
-      <c r="C23" t="str">
-        <v>5c796d117dbb98c0032b5c13</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -634,9 +565,6 @@
       <c r="B24" t="str">
         <v>Черкаська</v>
       </c>
-      <c r="C24" t="str">
-        <v>5c796d117dbb98c0032b5c14</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -645,9 +573,6 @@
       <c r="B25" t="str">
         <v>Чернівецька</v>
       </c>
-      <c r="C25" t="str">
-        <v>5c796d117dbb98c0032b5c15</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -656,9 +581,6 @@
       <c r="B26" t="str">
         <v>Чернігівська</v>
       </c>
-      <c r="C26" t="str">
-        <v>5c796d117dbb98c0032b5c16</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -667,9 +589,6 @@
       <c r="B27" t="str">
         <v>м.Київ</v>
       </c>
-      <c r="C27" t="str">
-        <v>5c796d117dbb98c0032b5c17</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -678,9 +597,6 @@
       <c r="B28" t="str">
         <v>м.Севастополь</v>
       </c>
-      <c r="C28" t="str">
-        <v>5c796d117dbb98c0032b5c18</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>
